--- a/DOM_Banner/output/dept0713/Salma Imran Patel_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Salma Imran Patel_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Cardiology and Heart Research, University of Rochester Medical Center, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; Division of Sleep and Circadian Disorders, Brigham and Women's Hospital, Harvard Medical School, USA; Edson College of Nursing and Health Innovation, Arizona State University, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Department of Medicine, Division of Clinical Data Analytics and Decision Support, University of Arizona College of Medicine, Phoenix, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319336439</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A QTc risk score in patients with obstructive sleep apnea</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Sleep Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2023.02.005</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36805915</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2023.02.005</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Received 29 July 2023 Accepted 4 August 2023.; Social, Cognitive, and Affective Neuroscience Laboratory, Department of Psychiatry University of Arizona, Tucson, Arizona, USA; This is an open-access article distributed under the terms of the Creative Commons Attribution-Non Commercial-No Derivatives License 4.0 (CCBY-NC-ND), where it is permissible to download and share the work provided it is properly cited. The work cannot be changed in any way or used commercially without permission from the journal.; Received 29 July 2023 Accepted 4 August 2023.; Social, Cognitive, and Affective Neuroscience Laboratory, Department of Psychiatry University of Arizona, Tucson, Arizona, USA; This is an open-access article distributed under the terms of the Creative Commons Attribution-Non Commercial-No Derivatives License 4.0 (CCBY-NC-ND), where it is permissible to download and share the work provided it is properly cited. The work cannot be changed in any way or used commercially without permission from the journal.; Received 29 July 2023 Accepted 4 August 2023.; Social, Cognitive, and Affective Neuroscience Laboratory, Department of Psychiatry University of Arizona, Tucson, Arizona, USA; This is an open-access article distributed under the terms of the Creative Commons Attribution-Non Commercial-No Derivatives License 4.0 (CCBY-NC-ND), where it is permissible to download and share the work provided it is properly cited. The work cannot be changed in any way or used commercially without permission from the journal.; Received 29 July 2023 Accepted 4 August 2023.; Social, Cognitive, and Affective Neuroscience Laboratory, Department of Psychiatry University of Arizona, Tucson, Arizona, USA; This is an open-access article distributed under the terms of the Creative Commons Attribution-Non Commercial-No Derivatives License 4.0 (CCBY-NC-ND), where it is permissible to download and share the work provided it is properly cited. The work cannot be changed in any way or used commercially without permission from the journal.; Received 29 July 2023 Accepted 4 August 2023.; Social, Cognitive, and Affective Neuroscience Laboratory, Department of Psychiatry University of Arizona, Tucson, Arizona, USA; This is an open-access article distributed under the terms of the Creative Commons Attribution-Non Commercial-No Derivatives License 4.0 (CCBY-NC-ND), where it is permissible to download and share the work provided it is properly cited. The work cannot be changed in any way or used commercially without permission from the journal.; Received 29 July 2023 Accepted 4 August 2023.; Social, Cognitive, and Affective Neuroscience Laboratory, Department of Psychiatry University of Arizona, Tucson, Arizona, USA; This is an open-access article distributed under the terms of the Creative Commons Attribution-Non Commercial-No Derivatives License 4.0 (CCBY-NC-ND), where it is permissible to download and share the work provided it is properly cited. The work cannot be changed in any way or used commercially without permission from the journal.; Received 29 July 2023 Accepted 4 August 2023.; Social, Cognitive, and Affective Neuroscience Laboratory, Department of Psychiatry University of Arizona, Tucson, Arizona, USA; This is an open-access article distributed under the terms of the Creative Commons Attribution-Non Commercial-No Derivatives License 4.0 (CCBY-NC-ND), where it is permissible to download and share the work provided it is properly cited. The work cannot be changed in any way or used commercially without permission from the journal.; Received 29 July 2023 Accepted 4 August 2023.; Social, Cognitive, and Affective Neuroscience Laboratory, Department of Psychiatry University of Arizona, Tucson, Arizona, USA; This is an open-access article distributed under the terms of the Creative Commons Attribution-Non Commercial-No Derivatives License 4.0 (CCBY-NC-ND), where it is permissible to download and share the work provided it is properly cited. The work cannot be changed in any way or used commercially without permission from the journal.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386047057</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Functional connectivity of the default mode network predicts subsequent polysomnographically measured sleep in people with symptoms of insomnia</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>NeuroReport</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/wnr.0000000000001949</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37605926</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/wnr.0000000000001949</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321014038</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Impact and Implications of Rapid Transition to Virtual Mental Health Care during COVID-19 in older adults</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The American Journal of Geriatric Psychiatry</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jagp.2022.12.239</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jagp.2022.12.239</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378610507</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0485 The clinical utility of echocardiography in identifying patients with heart failure at a single academic sleep center</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378610581</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0441 Positive airway pressure therapy associated changes in ventricular repolarization in patients with heart failure</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378610583</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0066 Continuous Theta Burst Transcranial Magnetic Stimulation for Insomnia and its Effects on Verbal Recall Performance</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0066</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0066</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378610748</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0416 Preliminary Study of the Effects of Continuous Theta Burst Stimulation of the Default Mode Network on Subjective Sleepiness</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0416</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0416</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378611451</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0684 Effects of Transcranial Magnetic Stimulation (TMS) on Treatment of Intrusive Thinking in Insomniac Populations</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0684</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0684</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
+          <t>VASHISTHA PATEL, Shivali Patel, Rayan Saab, Kalyan Prudhvi, Miles Cobia, Allison Rogers, Alanna Cole</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378611786</t>
+          <t>Internal Medicine, Brookwood Baptist Health, Birmingham, Alabama, 35211; Internal Medicine, Brookwood Baptist Health, Birmingham, Alabama, 35211; Interventional Cardiology, Cooperman Barnabas Medical Center, Livingston, New Jersey, 07039; Critical Care, Princeton Baptist Medical Center, Birmingham, Alabama, 35211; Neurology, Grandview Medical Center, Birmingham, Alabama, 35243; Internal Medicine, Brookwood Baptist Health, Birmingham, Alabama, 35211; Medical Library, Brookwood Baptist Health, Birmingham, Alabama, 35211</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0186 Continuous Theta Burst Transcranial Magnetic Stimulation and Signal Detection Performance on a Military Go/No-Go Task</t>
+          <t>https://openalex.org/W4386751202</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Extracorporeal cardiopulmonary resuscitation as a standard of care in the future: a literature review</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>F1000Research</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0186</t>
+          <t>Faculty of 1000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.12688/f1000research.137449.1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0186</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.12688/f1000research.137449.1</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shivali Patel, Michael R. Erwin, Richard G. Olmstead, Girardin Jean‐Louis, Sairam Parthasarathy, Shawn D. Youngstedt</t>
+          <t>Brian K. Ahmedani, Hsueh‐Han Yeh, Robert B. Penfold, Gregory E. Simon, Lisa R Miller-Matero, Esther Akinyemi, Melissa Duncan Fallone, Shivali Patel, Ganj Beebani, Stephanie Ann Hooker, Ashli Owen-Smith, Gregory Knowlton, Albert M. Levin, Angela Eke-Usim, Rebecca C. Rossom</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383316554</t>
+          <t>Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Comparisons of Sleep, Demographics, and Health-Related Variables in Older Long and Average Duration Sleepers</t>
+          <t>https://openalex.org/W4387515760</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Psychotherapy Disruption Before and After the Transition to Virtual Mental Health Care Induced by the COVID-19 Pandemic</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sleep Science</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brazilian Association of Sleep and Latin American Federation of Sleep Societies</t>
+          <t>Psychiatric Services</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1770804</t>
+          <t>American Psychiatric Association</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1176/appi.ps.20230181</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37425974</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1770804</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37817579</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1176/appi.ps.20230181</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saif Mashaqi, Michael William, Stuart F. Quan, Daniel Combs, Lauren Estep, Shivali Patel, Jyotsna Sahni, Sairam Parthasarathy</t>
+          <t>Lisa R Miller-Matero, Marissa Yaldo, Sikander Chohan, Celeste Zabel, Shivali Patel, Timothy Chrusciel, Joanne Salas, Laird Wilson, Mark D. Sullivan, Brian K. Ahmedani, Patrick J. Lustman, Jeffrey F. Scherrer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386513413</t>
+          <t>Henry Ford Health, Behavioral Health Services; Henry Ford Health, Center for Health Policy and Health Services Research; Henry Ford Health, Center for Health Policy and Health Services Research; Wayne State University School of Medicine; Henry Ford Health, Center for Health Policy and Health Services Research; Henry Ford Health, Behavioral Health Services; Advanced HEAlth Data (AHEAD) Research Institute, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Health and Clinical Outcomes Research, Saint Louis University School of Medicine; Advanced HEAlth Data (AHEAD) Research Institute, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Psychiatry and Behavioral Science, University of Washington School of Medicine; Henry Ford Health, Behavioral Health Services; Henry Ford Health, Center for Health Policy and Health Services Research; Department of Psychiatry, Washington University School of Medicine; Advanced HEAlth Data (AHEAD) Research Institute, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Psychiatry and Behavioral Neuroscience, Saint Louis University School of Medicine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
+          <t>https://openalex.org/W4387528370</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>Factors Associated with Interest in Engaging in Psychological Interventions for Pain Management</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Frontiers in Sleep</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>The Clinical Journal of Pain</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1097/ajp.0000000000001165</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37819213</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/ajp.0000000000001165</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VASHISTHA PATEL, Shivali Patel, Rayan Saab, Kalyan Prudhvi, Miles Cobia, Allison Rogers, Alanna Cole</t>
+          <t>Shivali Patel, Mauran Sivananthan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386751202</t>
+          <t>Department of Psychiatry, Henry Ford Health, Detroit, MI; Department of Psychiatry, Michigan Medicine, Ann Arbor, MI [email protected]; Received June 8, 2023; accepted after revision October 15, 2023.; Department of Psychiatry, Henry Ford Health, Detroit, MI; Department of Psychiatry, Michigan Medicine, Ann Arbor, MI [email protected]; Received June 8, 2023; accepted after revision October 15, 2023.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Extracorporeal cardiopulmonary resuscitation as a standard of care in the future: a literature review</t>
+          <t>https://openalex.org/W4389179598</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>Hypersensitivity to Psychotropic Medications in a Patient With 17q12 Microdeletion Syndrome</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>F1000Research</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Faculty of 1000</t>
+          <t>Journal of Clinical Psychopharmacology</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.12688/f1000research.137449.1</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1097/jcp.0000000000001797</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.12688/f1000research.137449.1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38032074</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/jcp.0000000000001797</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brian K. Ahmedani, Hsueh‐Han Yeh, Robert B. Penfold, Gregory E. Simon, Lisa R Miller-Matero, Esther Akinyemi, Melissa Duncan Fallone, Shivali Patel, Ganj Beebani, Stephanie Ann Hooker, Ashli Owen-Smith, Gregory Knowlton, Albert M. Levin, Angela Eke-Usim, Rebecca C. Rossom</t>
+          <t>Lindsey Hildebrand, Alisa Huskey, Natalie S. Dailey, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, William D. S. Killgore</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387515760</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Psychotherapy Disruption Before and After the Transition to Virtual Mental Health Care Induced by the COVID-19 Pandemic</t>
+          <t>https://openalex.org/W4391255743</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>Transcranial Magnetic Stimulation of the Default Mode Network to Improve Sleep in Individuals With Insomnia Symptoms: Protocol for a Double-Blind Randomized Controlled Trial (Preprint)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Psychiatric Services</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>American Psychiatric Association</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/appi.ps.20230181</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.2196/preprints.51212</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37817579</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/appi.ps.20230181</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2196/preprints.51212</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,42 +1578,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lisa R Miller-Matero, Marissa Yaldo, Sikander Chohan, Celeste Zabel, Shivali Patel, Timothy Chrusciel, Joanne Salas, Laird Wilson, Mark D. Sullivan, Brian K. Ahmedani, Patrick J. Lustman, Jeffrey F. Scherrer</t>
+          <t>Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387528370</t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Factors Associated with Interest in Engaging in Psychological Interventions for Pain Management</t>
+          <t>https://openalex.org/W4378611786</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>0186 Continuous Theta Burst Transcranial Magnetic Stimulation and Signal Detection Performance on a Military Go/No-Go Task</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The Clinical Journal of Pain</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/ajp.0000000000001165</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0186</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37819213</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/ajp.0000000000001165</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/sleep/zsad077.0186</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Shivali Patel, Michael R. Erwin, Richard G. Olmstead, Girardin Jean‐Louis, Sairam Parthasarathy, Shawn D. Youngstedt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387898634</t>
+          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Department of Psychiatry, NYU Grossman School of Medicine, New York, New York, United States; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, Arizona, United States</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>https://openalex.org/W4383316554</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Comparisons of Sleep, Demographics, and Health-Related Variables in Older Long and Average Duration Sleepers</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sleep Science</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>Brazilian Association of Sleep and Latin American Federation of Sleep Societies</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1055/s-0043-1770804</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37425974</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1055/s-0043-1770804</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Saif Mashaqi, Michael William, Stuart F. Quan, Daniel Combs, Lauren Estep, Shivali Patel, Jyotsna Sahni, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388485265</t>
+          <t>Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Division of Sleep and Circadian Disorders, Division of Sleep Medicine, Brigham and Women's Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Sleep Medicine, Department of Pediatrics, UAHS Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Sleep Medicine, Swan Sleep Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>https://openalex.org/W4386513413</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Frontiers in Sleep</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,42 +1839,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Shivali Patel, Mauran Sivananthan</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389179598</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; Mayo Clinic; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hypersensitivity to Psychotropic Medications in a Patient With 17q12 Microdeletion Syndrome</t>
+          <t>https://openalex.org/W4387898634</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Journal of Clinical Psychopharmacology</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/jcp.0000000000001797</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1799,35 +1884,40 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38032074</t>
-        </is>
-      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/jcp.0000000000001797</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,80 +1926,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lindsey Hildebrand, Alisa Huskey, Natalie S. Dailey, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, William D. S. Killgore</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391255743</t>
+          <t>University of Arizona, UNITED STATES; University of Rochester Medical Center, UNITED STATES; The University of Arizona, UNITED STATES; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Mayo Clinic Arizona; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Transcranial Magnetic Stimulation of the Default Mode Network to Improve Sleep in Individuals With Insomnia Symptoms: Protocol for a Double-Blind Randomized Controlled Trial (Preprint)</t>
+          <t>https://openalex.org/W4388485265</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2196/preprints.51212</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2196/preprints.51212</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Salma Imran Patel_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Salma Imran Patel_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,7 +452,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Cardiology and Heart Research, University of Rochester Medical Center, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; Division of Sleep and Circadian Disorders, Brigham and Women's Hospital, Harvard Medical School, USA; Edson College of Nursing and Health Innovation, Arizona State University, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Department of Medicine, Division of Clinical Data Analytics and Decision Support, University of Arizona College of Medicine, Phoenix, USA</t>
+          <t>UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Cardiology and Heart Research, University of Rochester Medical Center, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; Division of Sleep and Circadian Disorders, Brigham and Women's Hospital, Harvard Medical School, USA; Edson College of Nursing and Health Innovation, Arizona State University, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Department of Medicine, Division of Clinical Data Analytics and Decision Support, University of Arizona College of Medicine, Phoenix, USA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -621,42 +621,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shivali Patel, Hsueh‐Han Yeh, Angela Eke-Usim, Ganj Beebani, Brian K. Ahmedani, Rebecca C. Rossom, Esther Akinyemi</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; Mayo Clinic; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321014038</t>
+          <t>https://openalex.org/W4387898634</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Impact and Implications of Rapid Transition to Virtual Mental Health Care during COVID-19 in older adults</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The American Journal of Geriatric Psychiatry</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jagp.2022.12.239</t>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jagp.2022.12.239</t>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Imran Patel, Xiaojuan Xia, Chris Wendel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>University of Arizona, UNITED STATES; University of Rochester Medical Center, UNITED STATES; The University of Arizona, UNITED STATES; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Mayo Clinic Arizona; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610507</t>
+          <t>https://openalex.org/W4388485265</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0485 The clinical utility of echocardiography in identifying patients with heart failure at a single academic sleep center</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Xiaojuan Xia, Chris Wendel, Imran Patel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
+          <t>Shivali Patel, Mauran Sivananthan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>Department of Psychiatry, Henry Ford Health, Detroit, MI; Department of Psychiatry, Michigan Medicine, Ann Arbor, MI [email protected]; Received June 8, 2023; accepted after revision October 15, 2023.; Department of Psychiatry, Henry Ford Health, Detroit, MI; Department of Psychiatry, Michigan Medicine, Ann Arbor, MI [email protected]; Received June 8, 2023; accepted after revision October 15, 2023.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610581</t>
+          <t>https://openalex.org/W4389179598</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0441 Positive airway pressure therapy associated changes in ventricular repolarization in patients with heart failure</t>
+          <t>Hypersensitivity to Psychotropic Medications in a Patient With 17q12 Microdeletion Syndrome</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>Journal of Clinical Psychopharmacology</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
+          <t>https://doi.org/10.1097/jcp.0000000000001797</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38032074</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
+          <t>https://doi.org/10.1097/jcp.0000000000001797</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
+          <t>Shivali Patel, Hsueh‐Han Yeh, Angela Eke-Usim, Ganj Beebani, Brian K. Ahmedani, Rebecca C. Rossom, Esther Akinyemi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610583</t>
+          <t>https://openalex.org/W4321014038</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0066 Continuous Theta Burst Transcranial Magnetic Stimulation for Insomnia and its Effects on Verbal Recall Performance</t>
+          <t>Impact and Implications of Rapid Transition to Virtual Mental Health Care during COVID-19 in older adults</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>The American Journal of Geriatric Psychiatry</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0066</t>
+          <t>https://doi.org/10.1016/j.jagp.2022.12.239</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0066</t>
+          <t>https://doi.org/10.1016/j.jagp.2022.12.239</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,22 +969,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gabriela Samaha França, Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Melissa Reich-Fuhrer, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
+          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Imran Patel, Xiaojuan Xia, Chris Wendel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610748</t>
+          <t>https://openalex.org/W4378610507</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0416 Preliminary Study of the Effects of Continuous Theta Burst Stimulation of the Default Mode Network on Subjective Sleepiness</t>
+          <t>0485 The clinical utility of echocardiography in identifying patients with heart failure at a single academic sleep center</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0416</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0416</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,22 +1056,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Melissa Reich-Fuhrer, Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Gabriela Samaha França, Shivani Desai, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
+          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Xiaojuan Xia, Chris Wendel, Imran Patel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378611451</t>
+          <t>https://openalex.org/W4378610581</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0684 Effects of Transcranial Magnetic Stimulation (TMS) on Treatment of Intrusive Thinking in Insomniac Populations</t>
+          <t>0441 Positive airway pressure therapy associated changes in ventricular repolarization in patients with heart failure</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0684</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0684</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,47 +1143,47 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VASHISTHA PATEL, Shivali Patel, Rayan Saab, Kalyan Prudhvi, Miles Cobia, Allison Rogers, Alanna Cole</t>
+          <t>Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Internal Medicine, Brookwood Baptist Health, Birmingham, Alabama, 35211; Internal Medicine, Brookwood Baptist Health, Birmingham, Alabama, 35211; Interventional Cardiology, Cooperman Barnabas Medical Center, Livingston, New Jersey, 07039; Critical Care, Princeton Baptist Medical Center, Birmingham, Alabama, 35211; Neurology, Grandview Medical Center, Birmingham, Alabama, 35243; Internal Medicine, Brookwood Baptist Health, Birmingham, Alabama, 35211; Medical Library, Brookwood Baptist Health, Birmingham, Alabama, 35211</t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386751202</t>
+          <t>https://openalex.org/W4378610583</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Extracorporeal cardiopulmonary resuscitation as a standard of care in the future: a literature review</t>
+          <t>0066 Continuous Theta Burst Transcranial Magnetic Stimulation for Insomnia and its Effects on Verbal Recall Performance</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>F1000Research</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Faculty of 1000</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.12688/f1000research.137449.1</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0066</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.12688/f1000research.137449.1</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0066</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brian K. Ahmedani, Hsueh‐Han Yeh, Robert B. Penfold, Gregory E. Simon, Lisa R Miller-Matero, Esther Akinyemi, Melissa Duncan Fallone, Shivali Patel, Ganj Beebani, Stephanie Ann Hooker, Ashli Owen-Smith, Gregory Knowlton, Albert M. Levin, Angela Eke-Usim, Rebecca C. Rossom</t>
+          <t>Gabriela Samaha França, Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Melissa Reich-Fuhrer, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).; Center for Health Policy and Health Services Research (Ahmedani, Yeh, Miller-Matero), Behavioral Health Services (Ahmedani, Miller-Matero, Akinyemi, Fallone, Patel, Beebani), and Public Health Sciences (Levin), Henry Ford Health, Detroit; Kaiser Permanente Washington Health Research Institute, Seattle (Penfold, Simon); HealthPartners Institute, Minneapolis (Hooker, Knowlton, Rossom); Center for Research and Evaluation, Kaiser Permanente Georgia, and Department of Health Policy and Behavioral Sciences, Georgia State University, Atlanta (Owen-Smith); Authority Health, Detroit (Eke-Usim).</t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387515760</t>
+          <t>https://openalex.org/W4378610748</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Psychotherapy Disruption Before and After the Transition to Virtual Mental Health Care Induced by the COVID-19 Pandemic</t>
+          <t>0416 Preliminary Study of the Effects of Continuous Theta Burst Stimulation of the Default Mode Network on Subjective Sleepiness</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Psychiatric Services</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>American Psychiatric Association</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/appi.ps.20230181</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0416</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37817579</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/appi.ps.20230181</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0416</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lisa R Miller-Matero, Marissa Yaldo, Sikander Chohan, Celeste Zabel, Shivali Patel, Timothy Chrusciel, Joanne Salas, Laird Wilson, Mark D. Sullivan, Brian K. Ahmedani, Patrick J. Lustman, Jeffrey F. Scherrer</t>
+          <t>Melissa Reich-Fuhrer, Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Gabriela Samaha França, Shivani Desai, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Henry Ford Health, Behavioral Health Services; Henry Ford Health, Center for Health Policy and Health Services Research; Henry Ford Health, Center for Health Policy and Health Services Research; Wayne State University School of Medicine; Henry Ford Health, Center for Health Policy and Health Services Research; Henry Ford Health, Behavioral Health Services; Advanced HEAlth Data (AHEAD) Research Institute, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Health and Clinical Outcomes Research, Saint Louis University School of Medicine; Advanced HEAlth Data (AHEAD) Research Institute, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Psychiatry and Behavioral Science, University of Washington School of Medicine; Henry Ford Health, Behavioral Health Services; Henry Ford Health, Center for Health Policy and Health Services Research; Department of Psychiatry, Washington University School of Medicine; Advanced HEAlth Data (AHEAD) Research Institute, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Psychiatry and Behavioral Neuroscience, Saint Louis University School of Medicine</t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387528370</t>
+          <t>https://openalex.org/W4378611451</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Factors Associated with Interest in Engaging in Psychological Interventions for Pain Management</t>
+          <t>0684 Effects of Transcranial Magnetic Stimulation (TMS) on Treatment of Intrusive Thinking in Insomniac Populations</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The Clinical Journal of Pain</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/ajp.0000000000001165</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0684</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37819213</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/ajp.0000000000001165</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0684</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shivali Patel, Mauran Sivananthan</t>
+          <t>Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Department of Psychiatry, Henry Ford Health, Detroit, MI; Department of Psychiatry, Michigan Medicine, Ann Arbor, MI [email protected]; Received June 8, 2023; accepted after revision October 15, 2023.; Department of Psychiatry, Henry Ford Health, Detroit, MI; Department of Psychiatry, Michigan Medicine, Ann Arbor, MI [email protected]; Received June 8, 2023; accepted after revision October 15, 2023.</t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389179598</t>
+          <t>https://openalex.org/W4378611786</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hypersensitivity to Psychotropic Medications in a Patient With 17q12 Microdeletion Syndrome</t>
+          <t>0186 Continuous Theta Burst Transcranial Magnetic Stimulation and Signal Detection Performance on a Military Go/No-Go Task</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Journal of Clinical Psychopharmacology</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/jcp.0000000000001797</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0186</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38032074</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/jcp.0000000000001797</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0186</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,57 +1491,57 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lindsey Hildebrand, Alisa Huskey, Natalie S. Dailey, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, William D. S. Killgore</t>
+          <t>Shivali Patel, Michael R. Erwin, Richard G. Olmstead, Girardin Jean–Louis, Sairam Parthasarathy, Shawn D. Youngstedt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Department of Psychiatry, NYU Grossman School of Medicine, New York, New York, United States; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, Arizona, United States</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391255743</t>
+          <t>https://openalex.org/W4383316554</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Transcranial Magnetic Stimulation of the Default Mode Network to Improve Sleep in Individuals With Insomnia Symptoms: Protocol for a Double-Blind Randomized Controlled Trial (Preprint)</t>
+          <t>Comparisons of Sleep, Demographics, and Health-Related Variables in Older Long and Average Duration Sleepers</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sleep Science</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Brazilian Association of Sleep and Latin American Federation of Sleep Societies</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2196/preprints.51212</t>
+          <t>https://doi.org/10.1055/s-0043-1770804</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37425974</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2196/preprints.51212</t>
+          <t>https://doi.org/10.1055/s-0043-1770804</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,47 +1578,47 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lindsey Hildebrand, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, Natalie S. Dailey, William D.S. Killgore</t>
+          <t>Saif Mashaqi, Michael William, Stuart F. Quan, Daniel Combs, Lauren Estep, Shivali Patel, Jyotsna Sahni, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona College of Medicine</t>
+          <t>Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Division of Sleep and Circadian Disorders, Division of Sleep Medicine, Brigham and Women's Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Sleep Medicine, Department of Pediatrics, UAHS Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Sleep Medicine, Swan Sleep Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378611786</t>
+          <t>https://openalex.org/W4386513413</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0186 Continuous Theta Burst Transcranial Magnetic Stimulation and Signal Detection Performance on a Military Go/No-Go Task</t>
+          <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>Frontiers in Sleep</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0186</t>
+          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0186</t>
+          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,47 +1665,47 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shivali Patel, Michael R. Erwin, Richard G. Olmstead, Girardin Jean‐Louis, Sairam Parthasarathy, Shawn D. Youngstedt</t>
+          <t>VASHISTHA PATEL, Shivali Patel, Rayan Saab, Kalyan Prudhvi, Miles Cobia, Allison Rogers, Alanna Cole</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Department of Psychiatry, NYU Grossman School of Medicine, New York, New York, United States; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, Arizona, United States</t>
+          <t>Internal Medicine, Brookwood Baptist Health, Birmingham, Alabama, 35211; Internal Medicine, Brookwood Baptist Health, Birmingham, Alabama, 35211; Interventional Cardiology, Cooperman Barnabas Medical Center, Livingston, New Jersey, 07039; Critical Care, Princeton Baptist Medical Center, Birmingham, Alabama, 35211; Neurology, Grandview Medical Center, Birmingham, Alabama, 35243; Internal Medicine, Brookwood Baptist Health, Birmingham, Alabama, 35211; Medical Library, Brookwood Baptist Health, Birmingham, Alabama, 35211</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383316554</t>
+          <t>https://openalex.org/W4386751202</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Comparisons of Sleep, Demographics, and Health-Related Variables in Older Long and Average Duration Sleepers</t>
+          <t>Extracorporeal cardiopulmonary resuscitation as a standard of care in the future: a literature review</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sleep Science</t>
+          <t>F1000Research</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Brazilian Association of Sleep and Latin American Federation of Sleep Societies</t>
+          <t>Faculty of 1000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1770804</t>
+          <t>https://doi.org/10.12688/f1000research.137449.1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37425974</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1770804</t>
+          <t>https://doi.org/10.12688/f1000research.137449.1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,57 +1752,57 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Saif Mashaqi, Michael William, Stuart F. Quan, Daniel Combs, Lauren Estep, Shivali Patel, Jyotsna Sahni, Sairam Parthasarathy</t>
+          <t>Lisa R Miller-Matero, Marissa Yaldo, Sikander Chohan, Celeste Zabel, Shivali Patel, Timothy Chrusciel, Joanne Salas, Laird Wilson, Mark D. Sullivan, Brian K. Ahmedani, Patrick J. Lustman, Jeffrey F. Scherrer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Division of Sleep and Circadian Disorders, Division of Sleep Medicine, Brigham and Women's Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Sleep Medicine, Department of Pediatrics, UAHS Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Sleep Medicine, Swan Sleep Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States</t>
+          <t>Henry Ford Health, Behavioral Health Services; Henry Ford Health, Center for Health Policy and Health Services Research; Henry Ford Health, Center for Health Policy and Health Services Research; Wayne State University School of Medicine; Henry Ford Health, Center for Health Policy and Health Services Research; Henry Ford Health, Behavioral Health Services; Advanced HEAlth Data (AHEAD) Research Institute, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Health and Clinical Outcomes Research, Saint Louis University School of Medicine; Advanced HEAlth Data (AHEAD) Research Institute, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Psychiatry and Behavioral Science, University of Washington School of Medicine; Henry Ford Health, Behavioral Health Services; Henry Ford Health, Center for Health Policy and Health Services Research; Department of Psychiatry, Washington University School of Medicine; Advanced HEAlth Data (AHEAD) Research Institute, Saint Louis University School of Medicine; Department of Family and Community Medicine, Saint Louis University School of Medicine; Department of Psychiatry and Behavioral Neuroscience, Saint Louis University School of Medicine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386513413</t>
+          <t>https://openalex.org/W4387528370</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
+          <t>Factors Associated with Interest in Engaging in Psychological Interventions for Pain Management</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Frontiers in Sleep</t>
+          <t>The Clinical Journal of Pain</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
+          <t>https://doi.org/10.1097/ajp.0000000000001165</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1822,12 +1822,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37819213</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
+          <t>https://doi.org/10.1097/ajp.0000000000001165</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,27 +1839,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Lindsey Hildebrand, Alisa Huskey, Natalie S. Dailey, Samantha Jankowski, Kymberly Henderson-Arredondo, Christopher Trapani, Shivali Patel, Yu-Chin Chen, Ying-hui Chou, William D. S. Killgore</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; Mayo Clinic; University of Arizona; University of Arizona; University of Arizona</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387898634</t>
+          <t>https://openalex.org/W4391255743</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>Transcranial Magnetic Stimulation of the Default Mode Network to Improve Sleep in Individuals With Insomnia Symptoms: Protocol for a Double-Blind Randomized Controlled Trial (Preprint)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>https://doi.org/10.2196/preprints.51212</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1914,97 +1914,10 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>https://doi.org/10.2196/preprints.51212</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>University of Arizona, UNITED STATES; University of Rochester Medical Center, UNITED STATES; The University of Arizona, UNITED STATES; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Mayo Clinic Arizona; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4388485265</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2023-11-08</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Cold Spring Harbor Laboratory</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
